--- a/Files/Config.xlsx
+++ b/Files/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaoTN\Documents\UiPath\New folder\VNPAY_BIDV_TopUp\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facenet\Documents\UiPath\VNPAY_BIDV_TopUp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862F0B7-0ED5-4C6D-84A2-B95A9325015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EE43A-D228-4CCF-AEC4-9EA58C08A1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,34 +57,34 @@
     <t>Địa chỉ mail gửi file dữ liệu</t>
   </si>
   <si>
+    <t>Du lieu top up thang 10</t>
+  </si>
+  <si>
+    <t>Tiêu đề mail (nếu có chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>passFile</t>
+  </si>
+  <si>
+    <t>Password mở file dữ liệu</t>
+  </si>
+  <si>
+    <t>Đường dẫn tới folder chứa các file</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>C:\\RPA\\TopUp_BIDV</t>
+  </si>
+  <si>
+    <t>accountVNP</t>
+  </si>
+  <si>
+    <t>passVNP</t>
+  </si>
+  <si>
     <t>tittleMail</t>
-  </si>
-  <si>
-    <t>Du lieu top up thang 10</t>
-  </si>
-  <si>
-    <t>Tiêu đề mail (nếu có chỉnh sửa)</t>
-  </si>
-  <si>
-    <t>passFile</t>
-  </si>
-  <si>
-    <t>Password mở file dữ liệu</t>
-  </si>
-  <si>
-    <t>Đường dẫn tới folder chứa các file</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>C:\\RPA\\TopUp_BIDV</t>
-  </si>
-  <si>
-    <t>accountVNP</t>
-  </si>
-  <si>
-    <t>passVNP</t>
   </si>
 </sst>
 </file>
@@ -405,13 +405,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,7 +428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -438,7 +439,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -460,35 +461,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>888</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Config.xlsx
+++ b/Files/Config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facenet\Documents\UiPath\VNPAY_BIDV_TopUp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EE43A-D228-4CCF-AEC4-9EA58C08A1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773A719-EE17-42CD-8687-3D087C34ABEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -48,43 +48,82 @@
     <t>Mật khẩu đăng nhập</t>
   </si>
   <si>
-    <t>sentMail</t>
-  </si>
-  <si>
-    <t>phanhng.ba@gmail.com</t>
-  </si>
-  <si>
-    <t>Địa chỉ mail gửi file dữ liệu</t>
-  </si>
-  <si>
-    <t>Du lieu top up thang 10</t>
-  </si>
-  <si>
-    <t>Tiêu đề mail (nếu có chỉnh sửa)</t>
-  </si>
-  <si>
-    <t>passFile</t>
-  </si>
-  <si>
-    <t>Password mở file dữ liệu</t>
-  </si>
-  <si>
     <t>Đường dẫn tới folder chứa các file</t>
   </si>
   <si>
     <t>Path</t>
   </si>
   <si>
-    <t>C:\\RPA\\TopUp_BIDV</t>
-  </si>
-  <si>
     <t>accountVNP</t>
   </si>
   <si>
     <t>passVNP</t>
   </si>
   <si>
-    <t>tittleMail</t>
+    <t>mailSP</t>
+  </si>
+  <si>
+    <t>Địa chỉ mai gửi sổ phụ</t>
+  </si>
+  <si>
+    <t>Địa chủ mail gửi IBMB</t>
+  </si>
+  <si>
+    <t>gdkhdn.hoankiem@gmail.com</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>Địa chỉ mail nhận</t>
+  </si>
+  <si>
+    <t>Đường dẫn tới folder chứa file</t>
+  </si>
+  <si>
+    <t>lehth@vnpay.vn</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>mail_IBMB</t>
+  </si>
+  <si>
+    <t>pathMathe</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>Đường dẫn tới file mã thẻ</t>
+  </si>
+  <si>
+    <t>Tên sheet chứa dữ liệu mã thẻ</t>
+  </si>
+  <si>
+    <t>D:\\RPA\\TopUp_BIDV</t>
+  </si>
+  <si>
+    <t>tranghuyendang10@gmail.com</t>
+  </si>
+  <si>
+    <t>titleMail_IBMB</t>
+  </si>
+  <si>
+    <t>Tiêu đề mail (gần đúng)</t>
+  </si>
+  <si>
+    <t>vnpay topup</t>
+  </si>
+  <si>
+    <t>D:\\Files\\MaThe\\2022.10. Ma the (1).xlsx</t>
+  </si>
+  <si>
+    <t>rpt_FileBillreconcile(75)</t>
   </si>
 </sst>
 </file>
@@ -120,8 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
@@ -428,7 +469,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -439,7 +480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -450,49 +491,94 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6">
-        <v>888</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/Config.xlsx
+++ b/Files/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facenet\Documents\UiPath\VNPAY_BIDV_TopUp\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehth\Documents\UiPath\VNPAY_BIDV_TopUp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773A719-EE17-42CD-8687-3D087C34ABEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35BC06C-D74E-4BF2-A483-998B12CA946B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -75,55 +75,34 @@
     <t>mail</t>
   </si>
   <si>
-    <t>folder</t>
-  </si>
-  <si>
     <t>Địa chỉ mail nhận</t>
   </si>
   <si>
     <t>Đường dẫn tới folder chứa file</t>
   </si>
   <si>
-    <t>lehth@vnpay.vn</t>
-  </si>
-  <si>
-    <t>Inbox</t>
-  </si>
-  <si>
     <t>mail_IBMB</t>
   </si>
   <si>
-    <t>pathMathe</t>
-  </si>
-  <si>
-    <t>sheet</t>
-  </si>
-  <si>
-    <t>Đường dẫn tới file mã thẻ</t>
-  </si>
-  <si>
-    <t>Tên sheet chứa dữ liệu mã thẻ</t>
-  </si>
-  <si>
-    <t>D:\\RPA\\TopUp_BIDV</t>
-  </si>
-  <si>
     <t>tranghuyendang10@gmail.com</t>
   </si>
   <si>
-    <t>titleMail_IBMB</t>
-  </si>
-  <si>
-    <t>Tiêu đề mail (gần đúng)</t>
-  </si>
-  <si>
-    <t>vnpay topup</t>
-  </si>
-  <si>
-    <t>D:\\Files\\MaThe\\2022.10. Ma the (1).xlsx</t>
-  </si>
-  <si>
-    <t>rpt_FileBillreconcile(75)</t>
+    <t>OUTLOOK</t>
+  </si>
+  <si>
+    <t>folder_BIDV</t>
+  </si>
+  <si>
+    <t>folder_IBMB</t>
+  </si>
+  <si>
+    <t>Inbox\Ngân hàng\BIDV</t>
+  </si>
+  <si>
+    <t>Inbox\Ngân hàng\BIDV IBMB</t>
+  </si>
+  <si>
+    <t>D:\TOPUP_BIDV</t>
   </si>
 </sst>
 </file>
@@ -443,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,21 +473,21 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,10 +503,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -535,46 +514,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Config.xlsx
+++ b/Files/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehth\Documents\UiPath\VNPAY_BIDV_TopUp\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ổ D\VNPAY_TOPUP_BIDV\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35BC06C-D74E-4BF2-A483-998B12CA946B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F8AE72-847D-4E97-B69D-221FBAA48A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Địa chỉ mai gửi sổ phụ</t>
   </si>
   <si>
-    <t>Địa chủ mail gửi IBMB</t>
-  </si>
-  <si>
     <t>gdkhdn.hoankiem@gmail.com</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>D:\TOPUP_BIDV</t>
+  </si>
+  <si>
+    <t>Địa chỉ mail gửi IBMB</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,24 +470,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
